--- a/data/trans_orig/P36B11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7142</v>
+        <v>7252</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22046</v>
+        <v>22335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02666133178145897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01445472534188056</v>
+        <v>0.01467816448916556</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04462250425061857</v>
+        <v>0.04520736497224573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -764,19 +764,19 @@
         <v>13106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7574</v>
+        <v>7226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21861</v>
+        <v>21210</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02809863272131207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01623771253201252</v>
+        <v>0.01549183186551457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04686792582809597</v>
+        <v>0.04547412211287954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -785,19 +785,19 @@
         <v>26278</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17746</v>
+        <v>16899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38712</v>
+        <v>39006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02735930568809869</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01847596138816547</v>
+        <v>0.01759381692376854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0403043911798844</v>
+        <v>0.04061025695180451</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>61502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47600</v>
+        <v>47333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78041</v>
+        <v>75975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1244813869124879</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09634348029309965</v>
+        <v>0.09580305801236262</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.157957621437874</v>
+        <v>0.1537758347656843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -835,19 +835,19 @@
         <v>57965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45580</v>
+        <v>45049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73216</v>
+        <v>73158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1242732563118026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09772098732858804</v>
+        <v>0.09658330857910029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1569708426879632</v>
+        <v>0.156846828902562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -856,19 +856,19 @@
         <v>119466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102631</v>
+        <v>100325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141568</v>
+        <v>141312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1243803157140884</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1068528285206155</v>
+        <v>0.1044520262745545</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.147390465343232</v>
+        <v>0.1471245525198673</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>248205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>225667</v>
+        <v>225512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>269998</v>
+        <v>270078</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5023751805526386</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4567563707231443</v>
+        <v>0.4564429631989694</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5464844656998437</v>
+        <v>0.5466454530359296</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>246</v>
@@ -906,19 +906,19 @@
         <v>235854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>214627</v>
+        <v>213684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>256709</v>
+        <v>256812</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5056584073667894</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.460150046205231</v>
+        <v>0.4581283735391605</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.550370781189658</v>
+        <v>0.5505912754822447</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>498</v>
@@ -927,19 +927,19 @@
         <v>484059</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>450914</v>
+        <v>451335</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>513878</v>
+        <v>516421</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5039695624822096</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4694608136039914</v>
+        <v>0.4698992853365264</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5350152291531023</v>
+        <v>0.5376621186392773</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>160773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139816</v>
+        <v>140951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181174</v>
+        <v>182431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3254082748320231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2829907479474211</v>
+        <v>0.2852895954217052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.366702262893515</v>
+        <v>0.3692466536073347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -977,19 +977,19 @@
         <v>147547</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128797</v>
+        <v>128886</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168582</v>
+        <v>168823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3163322159280638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2761347324876399</v>
+        <v>0.2763257175655317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3614306115647621</v>
+        <v>0.3619485129504595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>318</v>
@@ -998,19 +998,19 @@
         <v>308319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>279428</v>
+        <v>278038</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>337759</v>
+        <v>336630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3210008107342565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2909214777825915</v>
+        <v>0.2894739773069768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3516512960976348</v>
+        <v>0.3504760750894373</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>10412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5207</v>
+        <v>5298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17846</v>
+        <v>18576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02107382592139145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01053938436399581</v>
+        <v>0.01072300980499409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03612152062485718</v>
+        <v>0.03759925661815327</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1048,19 +1048,19 @@
         <v>11958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6136</v>
+        <v>5782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19845</v>
+        <v>20480</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02563748767203222</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01315617449295301</v>
+        <v>0.0123967936172188</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04254657980926878</v>
+        <v>0.04390704469913705</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1069,19 +1069,19 @@
         <v>22370</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14411</v>
+        <v>13611</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32576</v>
+        <v>33807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02329000538134682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01500326091651324</v>
+        <v>0.01417128873020449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03391541727631173</v>
+        <v>0.03519806395792624</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>18446</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10310</v>
+        <v>11024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29453</v>
+        <v>27888</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02508019523950917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01401850198599075</v>
+        <v>0.01498855180515725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04004595979002184</v>
+        <v>0.03791821610977287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1194,19 +1194,19 @@
         <v>22683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14027</v>
+        <v>13779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34285</v>
+        <v>32773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03632210303491485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02246156740156167</v>
+        <v>0.0220640913376326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05489955022212765</v>
+        <v>0.05247859457228432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1215,19 +1215,19 @@
         <v>41129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29910</v>
+        <v>29608</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55839</v>
+        <v>56201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03024242278089448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0219927526588949</v>
+        <v>0.0217706323086551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04105811863432356</v>
+        <v>0.04132430300204357</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>83703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67970</v>
+        <v>68362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103397</v>
+        <v>102022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1138058962918029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09241507336799079</v>
+        <v>0.09294716849389061</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1405826441110645</v>
+        <v>0.1387128068004063</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>54</v>
@@ -1265,19 +1265,19 @@
         <v>59448</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44887</v>
+        <v>47031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76053</v>
+        <v>76749</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09519319351074222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07187738973951376</v>
+        <v>0.07531010012356124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1217823464254134</v>
+        <v>0.1228967132756204</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -1286,19 +1286,19 @@
         <v>143151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120403</v>
+        <v>122281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169416</v>
+        <v>167819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.105259036749397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0885325845965792</v>
+        <v>0.08991306247839605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.124571321623144</v>
+        <v>0.1233971004996482</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>368414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>338052</v>
+        <v>340970</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>394558</v>
+        <v>396241</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5009107070392679</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4596282889618257</v>
+        <v>0.4635959127354655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5364562176360723</v>
+        <v>0.5387443965862525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>330</v>
@@ -1336,19 +1336,19 @@
         <v>349039</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320469</v>
+        <v>322674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>372636</v>
+        <v>373690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5589101769797206</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5131603548312755</v>
+        <v>0.5166916291036643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5966949806012144</v>
+        <v>0.5983832960787708</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>684</v>
@@ -1357,19 +1357,19 @@
         <v>717454</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>677251</v>
+        <v>680004</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>756296</v>
+        <v>756671</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5275437720457888</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.497982457347602</v>
+        <v>0.5000072467274508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5561041680510577</v>
+        <v>0.5563798707002242</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>250460</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223795</v>
+        <v>224344</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279467</v>
+        <v>279842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.340535498221398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3042811276397573</v>
+        <v>0.3050270566322246</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.37997422066976</v>
+        <v>0.3804838655891843</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -1407,19 +1407,19 @@
         <v>176606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154751</v>
+        <v>153845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201546</v>
+        <v>200165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.282795359276268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2477996537464731</v>
+        <v>0.2463498537882261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3227310464280815</v>
+        <v>0.3205197621219754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>404</v>
@@ -1428,19 +1428,19 @@
         <v>427066</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>389593</v>
+        <v>394234</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464933</v>
+        <v>461887</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3140215167041525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2864680941529483</v>
+        <v>0.2898805152222317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3418654999381558</v>
+        <v>0.3396254239390888</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>14465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8430</v>
+        <v>8378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23829</v>
+        <v>23321</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.019667703208022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01146177743377876</v>
+        <v>0.01139107223435305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03239846603610809</v>
+        <v>0.03170778735150381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1478,19 +1478,19 @@
         <v>16724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10102</v>
+        <v>9862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25778</v>
+        <v>25857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02677916719835442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01617596209205228</v>
+        <v>0.01579261767542059</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04127732802701396</v>
+        <v>0.04140415377598375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1499,19 +1499,19 @@
         <v>31189</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22310</v>
+        <v>21785</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43855</v>
+        <v>42394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02293325171976721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01640437531391834</v>
+        <v>0.01601851503026178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03224668966053041</v>
+        <v>0.03117229150464169</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>7471</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3539</v>
+        <v>2931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14223</v>
+        <v>14448</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01169737080162532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005540523833671889</v>
+        <v>0.004589781394309136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02226994868324802</v>
+        <v>0.02262160419519342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>12910</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7380</v>
+        <v>7290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21582</v>
+        <v>22823</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01871680401539397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01069914172250554</v>
+        <v>0.01056901149075823</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03129055308810934</v>
+        <v>0.03308875374561124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1645,19 +1645,19 @@
         <v>20381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12877</v>
+        <v>13323</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30830</v>
+        <v>32207</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01534203399363122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009693364063921951</v>
+        <v>0.01002906366168715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02320852617540256</v>
+        <v>0.02424474711668563</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>54846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41647</v>
+        <v>41176</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70029</v>
+        <v>72040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08587515012184949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06520882403320023</v>
+        <v>0.06447187708091867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1096484094194379</v>
+        <v>0.1127965276487386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1695,19 +1695,19 @@
         <v>39813</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28086</v>
+        <v>28448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52558</v>
+        <v>52982</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05772168174315163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0407196901539504</v>
+        <v>0.0412438989056577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07619998611642941</v>
+        <v>0.07681379159556667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -1716,19 +1716,19 @@
         <v>94659</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77814</v>
+        <v>77660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>116559</v>
+        <v>115529</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07125717359835008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05857685120764509</v>
+        <v>0.0584607474836315</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08774343436676119</v>
+        <v>0.08696767459973721</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>328575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>303863</v>
+        <v>303405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>354435</v>
+        <v>356430</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5144690099199226</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4757764634474553</v>
+        <v>0.4750592565617892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5549599706149465</v>
+        <v>0.5580830755827803</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>378</v>
@@ -1766,19 +1766,19 @@
         <v>394177</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>368386</v>
+        <v>364786</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>417836</v>
+        <v>417607</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5714827943247748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.534090204622068</v>
+        <v>0.5288722042266421</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6057846850856162</v>
+        <v>0.6054525606788115</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>689</v>
@@ -1787,19 +1787,19 @@
         <v>722752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>687181</v>
+        <v>684140</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>759691</v>
+        <v>757436</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5440719757334205</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.517294744654285</v>
+        <v>0.5150062034805509</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5718794113704794</v>
+        <v>0.5701814558562093</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>234919</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210261</v>
+        <v>208197</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>258685</v>
+        <v>258554</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3678257748545798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3292180770601175</v>
+        <v>0.325985656803615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4050383727464046</v>
+        <v>0.4048337712785517</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>214</v>
@@ -1837,19 +1837,19 @@
         <v>227142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205023</v>
+        <v>204546</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>253688</v>
+        <v>253359</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3293132709200148</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.297245024611516</v>
+        <v>0.2965540915435576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3678006984427026</v>
+        <v>0.3673236419909645</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>441</v>
@@ -1858,19 +1858,19 @@
         <v>462060</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>428255</v>
+        <v>427184</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>496043</v>
+        <v>499850</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3478291310732892</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3223810048269221</v>
+        <v>0.321575279425562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3734105735695173</v>
+        <v>0.3762763812941483</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>12858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6833</v>
+        <v>6763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21520</v>
+        <v>22728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02013269430202271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01069945739839543</v>
+        <v>0.01058921712474798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03369578266637887</v>
+        <v>0.03558656820112734</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1908,19 +1908,19 @@
         <v>15702</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9373</v>
+        <v>8964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25253</v>
+        <v>25596</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02276544899666486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01358864409458325</v>
+        <v>0.012996419165997</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03661158277790121</v>
+        <v>0.03710985209252633</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>28</v>
@@ -1929,19 +1929,19 @@
         <v>28560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18597</v>
+        <v>19139</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41430</v>
+        <v>41288</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.021499685601309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01399919098319873</v>
+        <v>0.01440719935195189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03118729422527214</v>
+        <v>0.03108038787179428</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>8269</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4020</v>
+        <v>3775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16654</v>
+        <v>16057</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01592734434019016</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007744093051215877</v>
+        <v>0.007272469617366886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03207894801019703</v>
+        <v>0.03093025738807557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2054,19 +2054,19 @@
         <v>4545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1184</v>
+        <v>1156</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12669</v>
+        <v>10976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008813542654944398</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002295517645397192</v>
+        <v>0.002241055939292235</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02456939855701941</v>
+        <v>0.02128641020983007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2075,19 +2075,19 @@
         <v>12813</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7226</v>
+        <v>7080</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21500</v>
+        <v>21251</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01238249148489929</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006983530672198179</v>
+        <v>0.006842321416720817</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02077696357830405</v>
+        <v>0.02053624307411738</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>40179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28464</v>
+        <v>28855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54017</v>
+        <v>54467</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07739433875047261</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05482894447688674</v>
+        <v>0.05558229586020368</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1040494627423428</v>
+        <v>0.1049157613450395</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2125,19 +2125,19 @@
         <v>27004</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17273</v>
+        <v>17757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39080</v>
+        <v>38728</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05237035377988637</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03349789773924131</v>
+        <v>0.03443707455518559</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07578908741200875</v>
+        <v>0.07510590482294492</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>64</v>
@@ -2146,19 +2146,19 @@
         <v>67183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>51901</v>
+        <v>50887</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>85357</v>
+        <v>83177</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06492472707185103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05015626030236037</v>
+        <v>0.04917585347737696</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08248732986042767</v>
+        <v>0.08038090682723475</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>247898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>224105</v>
+        <v>225807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>270697</v>
+        <v>271926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4775110530067328</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4316784169691104</v>
+        <v>0.4349584811467472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5214257361591313</v>
+        <v>0.5237930934681096</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>294</v>
@@ -2196,19 +2196,19 @@
         <v>298746</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>279127</v>
+        <v>276427</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>320830</v>
+        <v>322058</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5793665358148772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5413202014082164</v>
+        <v>0.5360835257371541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6221954351671575</v>
+        <v>0.6245759777416704</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>523</v>
@@ -2217,19 +2217,19 @@
         <v>546644</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>515727</v>
+        <v>515138</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>581834</v>
+        <v>578873</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5282662912091605</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4983886186677495</v>
+        <v>0.4978192043834386</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5622731953386549</v>
+        <v>0.5594114442582676</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>216917</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>194481</v>
+        <v>195800</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>241059</v>
+        <v>240996</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4178333219315806</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3746172642058492</v>
+        <v>0.3771576921194993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4643369306849237</v>
+        <v>0.464216210525451</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -2267,19 +2267,19 @@
         <v>172124</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>151627</v>
+        <v>150063</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>192341</v>
+        <v>195034</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3338050395412691</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.294054366249771</v>
+        <v>0.291022255852702</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.373013546815764</v>
+        <v>0.3782358276307811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>368</v>
@@ -2288,19 +2288,19 @@
         <v>389041</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>355942</v>
+        <v>357607</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>418749</v>
+        <v>421966</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3759614916591301</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3439759202941297</v>
+        <v>0.3455848338429224</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4046713290338376</v>
+        <v>0.4077800030667109</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>5884</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2081</v>
+        <v>2106</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12186</v>
+        <v>12376</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01133394197102387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004007560501665289</v>
+        <v>0.004056185221918923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02347228215078976</v>
+        <v>0.02383878253549964</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2338,7 +2338,7 @@
         <v>13223</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7242</v>
+        <v>7097</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>21138</v>
@@ -2347,10 +2347,10 @@
         <v>0.02564452820902297</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01404545862317292</v>
+        <v>0.01376258374966034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04099277227836467</v>
+        <v>0.04099442470975048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2359,19 +2359,19 @@
         <v>19107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11483</v>
+        <v>12093</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29350</v>
+        <v>29338</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0184649985749591</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01109684825109443</v>
+        <v>0.01168674109651809</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02836293757941908</v>
+        <v>0.02835203125816282</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>2891</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7891</v>
+        <v>8152</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007477018266168389</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002214442873472349</v>
+        <v>0.002235891848705839</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02040507377844181</v>
+        <v>0.02108011873913421</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2497,19 +2497,19 @@
         <v>2891</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8099</v>
+        <v>7790</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003656826321312757</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001077549782629122</v>
+        <v>0.001081374033732721</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01024340171475033</v>
+        <v>0.009852387893975127</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>19905</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12599</v>
+        <v>12226</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30604</v>
+        <v>30027</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05147150289747638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03258040050116286</v>
+        <v>0.03161456396806225</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07913811457244799</v>
+        <v>0.07764733190438537</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -2547,19 +2547,19 @@
         <v>22377</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14545</v>
+        <v>14900</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33564</v>
+        <v>32686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05539090521056469</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03600317753182632</v>
+        <v>0.03688300541156517</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08308256058788926</v>
+        <v>0.08090846651072596</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2568,19 +2568,19 @@
         <v>42282</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31471</v>
+        <v>31669</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57524</v>
+        <v>56702</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05347402163049285</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03980206297743601</v>
+        <v>0.04005209096175152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07275162707433785</v>
+        <v>0.07171155151225864</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>180938</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>163912</v>
+        <v>161970</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>200977</v>
+        <v>200637</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4678910718566515</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4238638565164231</v>
+        <v>0.4188398466519466</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5197106319172785</v>
+        <v>0.5188305035248917</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>208</v>
@@ -2618,19 +2618,19 @@
         <v>211510</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>191027</v>
+        <v>191988</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>232743</v>
+        <v>232357</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5235585028064454</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4728560329052512</v>
+        <v>0.4752338607218759</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.576116522238403</v>
+        <v>0.5751613339485506</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>390</v>
@@ -2639,19 +2639,19 @@
         <v>392448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>366317</v>
+        <v>366575</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>422127</v>
+        <v>422355</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4963329271169822</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4632836920661501</v>
+        <v>0.4636110149932503</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5338675868060541</v>
+        <v>0.5341554075354163</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>164126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>144230</v>
+        <v>145361</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>181986</v>
+        <v>184570</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.424416773902445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3729669563211007</v>
+        <v>0.3758922113912369</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4706008554312557</v>
+        <v>0.4772822435051471</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>152</v>
@@ -2689,19 +2689,19 @@
         <v>154874</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>135943</v>
+        <v>135701</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176355</v>
+        <v>174945</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3833636470520266</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3365034538581785</v>
+        <v>0.3359040715310507</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4365375338372401</v>
+        <v>0.433046787340344</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>321</v>
@@ -2710,19 +2710,19 @@
         <v>319000</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>292227</v>
+        <v>290853</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>346021</v>
+        <v>346409</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4034417249026687</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3695820277112836</v>
+        <v>0.36784382759685</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4376155162507225</v>
+        <v>0.438105874992151</v>
       </c>
     </row>
     <row r="32">
@@ -2739,19 +2739,19 @@
         <v>18850</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11187</v>
+        <v>11702</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30114</v>
+        <v>29248</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04874363307725869</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02892843142191365</v>
+        <v>0.03025947512533417</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07787122121698668</v>
+        <v>0.07563295486846691</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -2760,19 +2760,19 @@
         <v>15225</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9082</v>
+        <v>8904</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24086</v>
+        <v>24487</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03768694493096322</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02248036199939014</v>
+        <v>0.0220393854635152</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05962017739301734</v>
+        <v>0.06061358857649537</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -2781,19 +2781,19 @@
         <v>34075</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23098</v>
+        <v>23987</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47792</v>
+        <v>47897</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04309450002854354</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02921258066698149</v>
+        <v>0.03033637768221709</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06044247913857411</v>
+        <v>0.06057599831927219</v>
       </c>
     </row>
     <row r="33">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5155</v>
+        <v>4677</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004461163546395716</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01503291672155858</v>
+        <v>0.01363691674883924</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4645</v>
+        <v>5597</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002407307211407849</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007308532899148486</v>
+        <v>0.008806553923537444</v>
       </c>
     </row>
     <row r="35">
@@ -2948,19 +2948,19 @@
         <v>13640</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7959</v>
+        <v>7972</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>21463</v>
+        <v>22220</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0466209462262755</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02720250702036453</v>
+        <v>0.02724762748866743</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07335562301919808</v>
+        <v>0.0759433760787955</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -2969,19 +2969,19 @@
         <v>21871</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14067</v>
+        <v>14522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>31330</v>
+        <v>31563</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06377519340590314</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04101836895544765</v>
+        <v>0.04234617198798348</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09135884717814724</v>
+        <v>0.09203892374518283</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>39</v>
@@ -2990,19 +2990,19 @@
         <v>35511</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>25833</v>
+        <v>25502</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>47899</v>
+        <v>48267</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05587762164566335</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04064899358509953</v>
+        <v>0.0401277449027392</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07537063119309761</v>
+        <v>0.0759499737042595</v>
       </c>
     </row>
     <row r="36">
@@ -3019,19 +3019,19 @@
         <v>153338</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>137595</v>
+        <v>136726</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>171651</v>
+        <v>170133</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5240839414348715</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4702764010609766</v>
+        <v>0.4673070969005461</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.586675188954447</v>
+        <v>0.5814852236516542</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>190</v>
@@ -3040,19 +3040,19 @@
         <v>176079</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>158670</v>
+        <v>158728</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>194738</v>
+        <v>194166</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5134482549075827</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4626834813221932</v>
+        <v>0.4628531798972428</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5678587415566695</v>
+        <v>0.5661897553427734</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>350</v>
@@ -3061,19 +3061,19 @@
         <v>329417</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>303073</v>
+        <v>305395</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>351829</v>
+        <v>352526</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5183447739264081</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4768920447449134</v>
+        <v>0.4805454384487084</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5536112564892931</v>
+        <v>0.554706966997913</v>
       </c>
     </row>
     <row r="37">
@@ -3090,19 +3090,19 @@
         <v>117746</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>102207</v>
+        <v>101738</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>134357</v>
+        <v>134568</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4024374674138516</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3493254347800581</v>
+        <v>0.347723136113471</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4592099335311369</v>
+        <v>0.4599320956270386</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>146</v>
@@ -3111,19 +3111,19 @@
         <v>134906</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>118271</v>
+        <v>118826</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>152937</v>
+        <v>153411</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3933885949327521</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3448811910795798</v>
+        <v>0.3464990117380304</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4459648269113586</v>
+        <v>0.4473492218032901</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>267</v>
@@ -3132,19 +3132,19 @@
         <v>252653</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>228852</v>
+        <v>233365</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>275864</v>
+        <v>278442</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3975545673021845</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3601042002589647</v>
+        <v>0.367205324215461</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4340786009187503</v>
+        <v>0.4381342386032382</v>
       </c>
     </row>
     <row r="38">
@@ -3161,19 +3161,19 @@
         <v>7858</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3221</v>
+        <v>2750</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15634</v>
+        <v>15207</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02685764492500143</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01100903408095981</v>
+        <v>0.009398928178290798</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05343522760823873</v>
+        <v>0.05197390088803198</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -3182,19 +3182,19 @@
         <v>8548</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3953</v>
+        <v>4202</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15365</v>
+        <v>15932</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02492679320736629</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01152643798128719</v>
+        <v>0.01225255128837878</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04480383811867605</v>
+        <v>0.0464578288031017</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -3203,19 +3203,19 @@
         <v>16406</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>9694</v>
+        <v>10059</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>26370</v>
+        <v>25964</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02581572991433618</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01525359396145731</v>
+        <v>0.015827990053395</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0414942985948077</v>
+        <v>0.04085557986871435</v>
       </c>
     </row>
     <row r="39">
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6407</v>
+        <v>6673</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007948485539000178</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>2.024997485122543e-07</v>
+        <v>2.024965247829754e-07</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03065415920468098</v>
+        <v>0.03192554878161455</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3328,19 +3328,19 @@
         <v>5545</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2196</v>
+        <v>2206</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12307</v>
+        <v>13537</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01660505807097929</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.006575628409433708</v>
+        <v>0.006606322763772278</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03685788312322515</v>
+        <v>0.04054167151897409</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3349,19 +3349,19 @@
         <v>7206</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3042</v>
+        <v>3073</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>14428</v>
+        <v>14696</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01327244326781363</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005602644408434166</v>
+        <v>0.005660197177927319</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02657439301479195</v>
+        <v>0.02706910696892398</v>
       </c>
     </row>
     <row r="41">
@@ -3378,19 +3378,19 @@
         <v>12403</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7358</v>
+        <v>6904</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20368</v>
+        <v>19295</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05934163634545403</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03520270744546818</v>
+        <v>0.03303074006642691</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.097446600999337</v>
+        <v>0.09231519556966619</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -3399,19 +3399,19 @@
         <v>17142</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10192</v>
+        <v>10145</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>27414</v>
+        <v>27055</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0513371176859387</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03052232221869747</v>
+        <v>0.03038329403499933</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08210174099394504</v>
+        <v>0.08102532403601263</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>30</v>
@@ -3420,19 +3420,19 @@
         <v>29545</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20640</v>
+        <v>19452</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>39952</v>
+        <v>40364</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05441870422360937</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03801716427504408</v>
+        <v>0.03582886646531459</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07358747296307701</v>
+        <v>0.0743465607630637</v>
       </c>
     </row>
     <row r="42">
@@ -3449,19 +3449,19 @@
         <v>100618</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>86147</v>
+        <v>87468</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>114640</v>
+        <v>115931</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4813907522835207</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4121564129999428</v>
+        <v>0.4184748693381423</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5484789910845845</v>
+        <v>0.5546544521592196</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>143</v>
@@ -3470,19 +3470,19 @@
         <v>166179</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>146459</v>
+        <v>147321</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>185213</v>
+        <v>186365</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4976802085611989</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4386197968453188</v>
+        <v>0.4412028337461131</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5546820824749115</v>
+        <v>0.558134196740075</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>245</v>
@@ -3491,19 +3491,19 @@
         <v>266797</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>243708</v>
+        <v>244983</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>291197</v>
+        <v>290911</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4914090795518866</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4488811482170909</v>
+        <v>0.4512288845319857</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5363509291983969</v>
+        <v>0.535824283356487</v>
       </c>
     </row>
     <row r="43">
@@ -3520,19 +3520,19 @@
         <v>88890</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>74838</v>
+        <v>73919</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>103046</v>
+        <v>102951</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4252811856037265</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3580523380751734</v>
+        <v>0.3536560540680154</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4930061962196025</v>
+        <v>0.4925551637758547</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>124</v>
@@ -3541,19 +3541,19 @@
         <v>142750</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>123653</v>
+        <v>123806</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>162475</v>
+        <v>163255</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4275134065875064</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3703214597548948</v>
+        <v>0.3707775081164835</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4865874609222106</v>
+        <v>0.4889207061754391</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>219</v>
@@ -3562,19 +3562,19 @@
         <v>231640</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>207668</v>
+        <v>208182</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>255773</v>
+        <v>254381</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4266540442166604</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3825004251265706</v>
+        <v>0.3834461362470519</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4711034921442592</v>
+        <v>0.4685405499558645</v>
       </c>
     </row>
     <row r="44">
@@ -3591,19 +3591,19 @@
         <v>5442</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1833</v>
+        <v>1770</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13100</v>
+        <v>14899</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0260379402282986</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008771142820222209</v>
+        <v>0.008468038226918752</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06267387034275444</v>
+        <v>0.07128116554110246</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7942</v>
+        <v>7028</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006864209094376673</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02378499582596953</v>
+        <v>0.02104893193068636</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -3633,19 +3633,19 @@
         <v>7734</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3233</v>
+        <v>3578</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16191</v>
+        <v>16411</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01424572874002998</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005953973525947101</v>
+        <v>0.006589553731190996</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.029821926720607</v>
+        <v>0.03022649076496693</v>
       </c>
     </row>
     <row r="45">
@@ -3737,19 +3737,19 @@
         <v>51911</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>39037</v>
+        <v>37643</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>68472</v>
+        <v>68315</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01584734574941803</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01191726442446997</v>
+        <v>0.01149161016342102</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02090317902822314</v>
+        <v>0.02085513244490594</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>58</v>
@@ -3758,19 +3758,19 @@
         <v>60318</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>47271</v>
+        <v>46006</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>77297</v>
+        <v>77131</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01786067506567341</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0139972618678741</v>
+        <v>0.01362282098428767</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02288835510466079</v>
+        <v>0.02283927043984476</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>109</v>
@@ -3779,19 +3779,19 @@
         <v>112229</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>93791</v>
+        <v>90767</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>136483</v>
+        <v>133950</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01686936396392263</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01409786119599986</v>
+        <v>0.01364343268477583</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02051499133020116</v>
+        <v>0.02013434686360772</v>
       </c>
     </row>
     <row r="47">
@@ -3808,19 +3808,19 @@
         <v>286178</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>254690</v>
+        <v>258549</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>318929</v>
+        <v>321736</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08736450989330419</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07775184364621651</v>
+        <v>0.07892999155717424</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09736284358319373</v>
+        <v>0.09821966027920076</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>239</v>
@@ -3829,19 +3829,19 @@
         <v>245620</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>215320</v>
+        <v>214161</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>278317</v>
+        <v>275870</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07273013074753754</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.06375801291122163</v>
+        <v>0.06341470763790923</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08241192725602278</v>
+        <v>0.08168737625759134</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>525</v>
@@ -3850,19 +3850,19 @@
         <v>531798</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>488727</v>
+        <v>487217</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>578905</v>
+        <v>577106</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07993571922096761</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07346163511457601</v>
+        <v>0.0732346391929697</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08701645400942626</v>
+        <v>0.08674613825890001</v>
       </c>
     </row>
     <row r="48">
@@ -3879,19 +3879,19 @@
         <v>1627987</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1565253</v>
+        <v>1570884</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1682502</v>
+        <v>1688546</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4969927473070286</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4778413053036529</v>
+        <v>0.4795604057067101</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.513635109445832</v>
+        <v>0.5154804084198057</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1789</v>
@@ -3900,19 +3900,19 @@
         <v>1831584</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1773174</v>
+        <v>1775815</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1891223</v>
+        <v>1892097</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5423472633773438</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5250515715930664</v>
+        <v>0.5258336284873716</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5600066663961318</v>
+        <v>0.5602654933590866</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3379</v>
@@ -3921,19 +3921,19 @@
         <v>3459572</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3373466</v>
+        <v>3375119</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3533278</v>
+        <v>3536650</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5200158767869671</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5070731192098067</v>
+        <v>0.5073215824681397</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.531094882562623</v>
+        <v>0.5316017223687479</v>
       </c>
     </row>
     <row r="49">
@@ -3950,19 +3950,19 @@
         <v>1233830</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1177957</v>
+        <v>1180609</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1291934</v>
+        <v>1291375</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3766644918517888</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3596072849188576</v>
+        <v>0.3604171656776102</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3944024070289592</v>
+        <v>0.3942316964802675</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1127</v>
@@ -3971,19 +3971,19 @@
         <v>1155948</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1102286</v>
+        <v>1096686</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1215914</v>
+        <v>1210634</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3422857690315117</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3263961402719234</v>
+        <v>0.3247377032180112</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.360042217679895</v>
+        <v>0.3584788786897924</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2338</v>
@@ -3992,19 +3992,19 @@
         <v>2389779</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2313004</v>
+        <v>2315429</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2464563</v>
+        <v>2475920</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3592129598892594</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3476727167354242</v>
+        <v>0.3480372183141913</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3704539021998582</v>
+        <v>0.3721610612407266</v>
       </c>
     </row>
     <row r="50">
@@ -4021,19 +4021,19 @@
         <v>75769</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>59937</v>
+        <v>60009</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>94124</v>
+        <v>94449</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02313090519846038</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01829772799806634</v>
+        <v>0.01831969795633119</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02873437173406106</v>
+        <v>0.02883350476235349</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>82</v>
@@ -4042,19 +4042,19 @@
         <v>83673</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>68620</v>
+        <v>68060</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>103209</v>
+        <v>103210</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02477616177793356</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02031889311405933</v>
+        <v>0.02015311564697445</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03056098081269965</v>
+        <v>0.03056135823693596</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>157</v>
@@ -4063,19 +4063,19 @@
         <v>159442</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>134947</v>
+        <v>134651</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>185901</v>
+        <v>183558</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02396608013888321</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02028417487863406</v>
+        <v>0.02023962330641614</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02794323958271027</v>
+        <v>0.02759103606369397</v>
       </c>
     </row>
     <row r="51">
@@ -4410,19 +4410,19 @@
         <v>10864</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5742</v>
+        <v>5852</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20054</v>
+        <v>18758</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02397351748669718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01267180482444781</v>
+        <v>0.01291334097784901</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04425475201558127</v>
+        <v>0.04139444204027583</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4431,19 +4431,19 @@
         <v>16274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10071</v>
+        <v>10219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26553</v>
+        <v>27130</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03790467969209948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0234565202447573</v>
+        <v>0.02380267920390462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06184826121571185</v>
+        <v>0.06319050643642903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4452,19 +4452,19 @@
         <v>27137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18341</v>
+        <v>17978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38474</v>
+        <v>38243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03075102174715405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0207830549974521</v>
+        <v>0.02037243126554928</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04359685533155469</v>
+        <v>0.04333505371014268</v>
       </c>
     </row>
     <row r="5">
@@ -4481,19 +4481,19 @@
         <v>64910</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50822</v>
+        <v>49907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81198</v>
+        <v>81185</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.143238943564577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1121501712475348</v>
+        <v>0.1101305038794768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1791815287721869</v>
+        <v>0.1791528957576007</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -4502,19 +4502,19 @@
         <v>35200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24625</v>
+        <v>25856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48405</v>
+        <v>47923</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08198783819497893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05735566210023519</v>
+        <v>0.06022442134060992</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1127443085831275</v>
+        <v>0.1116234809342882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -4523,19 +4523,19 @@
         <v>100110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82790</v>
+        <v>83916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120456</v>
+        <v>121634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1134403078528227</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09381360843284639</v>
+        <v>0.09509056619224249</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1364960873964437</v>
+        <v>0.137830792961136</v>
       </c>
     </row>
     <row r="6">
@@ -4552,19 +4552,19 @@
         <v>241070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>218786</v>
+        <v>219272</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>259499</v>
+        <v>260562</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5319771015906086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4828024507535312</v>
+        <v>0.4838732987276216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.572645141756282</v>
+        <v>0.5749909619118491</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>228</v>
@@ -4573,19 +4573,19 @@
         <v>233609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>211816</v>
+        <v>213905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>253757</v>
+        <v>253601</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5441222884236621</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4933633915110818</v>
+        <v>0.4982294619307553</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5910528574280036</v>
+        <v>0.5906896129619041</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>466</v>
@@ -4594,19 +4594,19 @@
         <v>474679</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>447734</v>
+        <v>444881</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>505918</v>
+        <v>504875</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5378857296211648</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.507353203982183</v>
+        <v>0.5041198463939859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5732843785203252</v>
+        <v>0.5721026624762365</v>
       </c>
     </row>
     <row r="7">
@@ -4623,19 +4623,19 @@
         <v>120536</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104638</v>
+        <v>103725</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141534</v>
+        <v>140281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2659907491762683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2309069209527128</v>
+        <v>0.2288941107395489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3123273379630199</v>
+        <v>0.3095617081979075</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -4644,19 +4644,19 @@
         <v>136122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118404</v>
+        <v>118625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158028</v>
+        <v>154498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3170559275396947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2757881899231793</v>
+        <v>0.2763029660040462</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3680805055342743</v>
+        <v>0.3598585851814793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>250</v>
@@ -4665,19 +4665,19 @@
         <v>256658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>228914</v>
+        <v>229768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>281636</v>
+        <v>284247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2908339358979692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2593960325600494</v>
+        <v>0.2603627478516263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3191383054465822</v>
+        <v>0.32209632735812</v>
       </c>
     </row>
     <row r="8">
@@ -4694,19 +4694,19 @@
         <v>15779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9187</v>
+        <v>9376</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25767</v>
+        <v>24979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03481968818184879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0202731042208862</v>
+        <v>0.02069090316465982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05686169228153498</v>
+        <v>0.05512278944197847</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4715,19 +4715,19 @@
         <v>8127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4031</v>
+        <v>3981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15350</v>
+        <v>15190</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01892926614956477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009388962248506714</v>
+        <v>0.009272204189161073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03575313001233503</v>
+        <v>0.0353804844043676</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -4736,19 +4736,19 @@
         <v>23906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15381</v>
+        <v>15884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34253</v>
+        <v>35411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02708900488088923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01742868990288928</v>
+        <v>0.0179989435702408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03881372480558111</v>
+        <v>0.04012599783004302</v>
       </c>
     </row>
     <row r="9">
@@ -4840,19 +4840,19 @@
         <v>10108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5029</v>
+        <v>4743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19786</v>
+        <v>19933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01471209762934428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007319151628353041</v>
+        <v>0.006903488944980538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0287971428949687</v>
+        <v>0.02901137475828334</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -4861,19 +4861,19 @@
         <v>10159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4905</v>
+        <v>5123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17829</v>
+        <v>18175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01664753417652949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008038118288291344</v>
+        <v>0.008394378375931984</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.029216409045465</v>
+        <v>0.02978318682863896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4882,19 +4882,19 @@
         <v>20268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12340</v>
+        <v>12331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31241</v>
+        <v>30637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01562250538055268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009511393744767501</v>
+        <v>0.00950460780308247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02408054173880643</v>
+        <v>0.02361531157876187</v>
       </c>
     </row>
     <row r="11">
@@ -4911,19 +4911,19 @@
         <v>69700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55700</v>
+        <v>54693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88903</v>
+        <v>87813</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1014424822453587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08106643558465933</v>
+        <v>0.07960079284116904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1293913296262218</v>
+        <v>0.1278040614482482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -4932,19 +4932,19 @@
         <v>48378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36292</v>
+        <v>35712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63535</v>
+        <v>63946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07927553322457075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05947045166274667</v>
+        <v>0.05852002538633495</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1041114119664854</v>
+        <v>0.1047858424430269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>112</v>
@@ -4953,19 +4953,19 @@
         <v>118078</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>97814</v>
+        <v>98528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>142220</v>
+        <v>141011</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09101539682190893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07539590188303165</v>
+        <v>0.0759462335711622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1096243375677345</v>
+        <v>0.1086924513053234</v>
       </c>
     </row>
     <row r="12">
@@ -4982,19 +4982,19 @@
         <v>370217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>343164</v>
+        <v>343674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>395847</v>
+        <v>397841</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5388204130987756</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4994478580322801</v>
+        <v>0.5001905847954192</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5761240777372529</v>
+        <v>0.5790259897424516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>304</v>
@@ -5003,19 +5003,19 @@
         <v>325378</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>300261</v>
+        <v>299542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>351193</v>
+        <v>349177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5331834761766886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4920251830606433</v>
+        <v>0.4908474919978342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5754854244989641</v>
+        <v>0.5721816390751793</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>671</v>
@@ -5024,19 +5024,19 @@
         <v>695594</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>659292</v>
+        <v>660133</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>734068</v>
+        <v>732103</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5361688608820913</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5081865741913071</v>
+        <v>0.5088351895868352</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5658247743759603</v>
+        <v>0.5643100563185209</v>
       </c>
     </row>
     <row r="13">
@@ -5053,19 +5053,19 @@
         <v>220404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>197254</v>
+        <v>196309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246373</v>
+        <v>247282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3207800796734798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2870876854825671</v>
+        <v>0.2857121764836701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3585762128485854</v>
+        <v>0.3598996578173193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -5074,19 +5074,19 @@
         <v>208741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185544</v>
+        <v>184746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233276</v>
+        <v>235571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3420557139220436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3040435530370343</v>
+        <v>0.3027354421460268</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3822597781622671</v>
+        <v>0.386020991045556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>403</v>
@@ -5095,19 +5095,19 @@
         <v>429145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>393746</v>
+        <v>395578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464987</v>
+        <v>462870</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3307879005756619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3035017338550295</v>
+        <v>0.3049141267500308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3584148459529046</v>
+        <v>0.3567836655594631</v>
       </c>
     </row>
     <row r="14">
@@ -5124,19 +5124,19 @@
         <v>16658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9755</v>
+        <v>9817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27292</v>
+        <v>27397</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02424492735304173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01419738345310014</v>
+        <v>0.0142876256412604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03972063382013567</v>
+        <v>0.03987363626927962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -5145,19 +5145,19 @@
         <v>17598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10642</v>
+        <v>10574</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28345</v>
+        <v>27217</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02883774250016759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01743863143240046</v>
+        <v>0.01732720552665822</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0464476240495515</v>
+        <v>0.04459949473810883</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -5166,19 +5166,19 @@
         <v>34257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24117</v>
+        <v>24428</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47294</v>
+        <v>46972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02640533633978523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0185893540315463</v>
+        <v>0.0188292316281812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03645489782306341</v>
+        <v>0.03620660805644074</v>
       </c>
     </row>
     <row r="15">
@@ -5270,19 +5270,19 @@
         <v>12139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6177</v>
+        <v>6436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22057</v>
+        <v>21455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01782826855434409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009071633957937791</v>
+        <v>0.009452479890722298</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03239449806352427</v>
+        <v>0.03151008355612025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5291,19 +5291,19 @@
         <v>6937</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2875</v>
+        <v>2915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13240</v>
+        <v>13934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009786982831196445</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004055644363382575</v>
+        <v>0.00411296491557298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01867926857109967</v>
+        <v>0.01965790884271021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5312,19 +5312,19 @@
         <v>19077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12009</v>
+        <v>10997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30167</v>
+        <v>30335</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01372682545065054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008641486551935281</v>
+        <v>0.007913286988228669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02170692352690554</v>
+        <v>0.02182768883289428</v>
       </c>
     </row>
     <row r="17">
@@ -5341,19 +5341,19 @@
         <v>68441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53357</v>
+        <v>54749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85999</v>
+        <v>88049</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1005156683664388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07836247563126328</v>
+        <v>0.08040635856965085</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1263021953896447</v>
+        <v>0.129312471882236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -5362,19 +5362,19 @@
         <v>58473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44204</v>
+        <v>43696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74013</v>
+        <v>75463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08249184597064049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06236194778224094</v>
+        <v>0.06164575380784246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1044162961290656</v>
+        <v>0.1064623109800611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -5383,19 +5383,19 @@
         <v>126914</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106382</v>
+        <v>106177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>149579</v>
+        <v>149982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09132265065601872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07654873402849227</v>
+        <v>0.07640104190282278</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1076320672973525</v>
+        <v>0.1079218577232706</v>
       </c>
     </row>
     <row r="18">
@@ -5412,19 +5412,19 @@
         <v>336093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>307274</v>
+        <v>311177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>363145</v>
+        <v>364978</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4936018153610485</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4512772499560761</v>
+        <v>0.4570096759514409</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.533331901287049</v>
+        <v>0.5360234885507077</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>349</v>
@@ -5433,19 +5433,19 @@
         <v>367932</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>339818</v>
+        <v>341429</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>395467</v>
+        <v>395395</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5190703867929597</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4794083931863162</v>
+        <v>0.4816805572736796</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5579163229212613</v>
+        <v>0.5578145237213056</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>674</v>
@@ -5454,19 +5454,19 @@
         <v>704025</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>662419</v>
+        <v>664004</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>740504</v>
+        <v>738457</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.50659201372692</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4766543003885984</v>
+        <v>0.4777948747683861</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5328410541441205</v>
+        <v>0.5313686150407004</v>
       </c>
     </row>
     <row r="19">
@@ -5483,19 +5483,19 @@
         <v>250443</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>226155</v>
+        <v>223929</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>279933</v>
+        <v>274725</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3678121815292453</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3321414449945976</v>
+        <v>0.3288718868445951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4111223055875244</v>
+        <v>0.4034741068322834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>235</v>
@@ -5504,19 +5504,19 @@
         <v>254516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>228911</v>
+        <v>227256</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>280716</v>
+        <v>281557</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3590661247446609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3229425010560492</v>
+        <v>0.3206080251974062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.396028820262958</v>
+        <v>0.397214740074474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>473</v>
@@ -5525,19 +5525,19 @@
         <v>504959</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>468199</v>
+        <v>470546</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>544747</v>
+        <v>543029</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3633512712322282</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3369002567314481</v>
+        <v>0.3385887669439707</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3919813030318988</v>
+        <v>0.3907453773747134</v>
       </c>
     </row>
     <row r="20">
@@ -5554,19 +5554,19 @@
         <v>13783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7756</v>
+        <v>7554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22598</v>
+        <v>23360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02024206618892335</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01139132953322941</v>
+        <v>0.01109484805116857</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03318847063313315</v>
+        <v>0.03430731479034818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5575,19 +5575,19 @@
         <v>20970</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12924</v>
+        <v>13010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32314</v>
+        <v>33867</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02958465966054249</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01823318267071337</v>
+        <v>0.01835397659901526</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04558758917629067</v>
+        <v>0.04777941772419102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -5596,19 +5596,19 @@
         <v>34753</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23772</v>
+        <v>23827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48448</v>
+        <v>48606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0250072389341825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01710586645803946</v>
+        <v>0.0171452080784095</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03486162015509433</v>
+        <v>0.03497498477140982</v>
       </c>
     </row>
     <row r="21">
@@ -5700,19 +5700,19 @@
         <v>8880</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3099</v>
+        <v>3474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19282</v>
+        <v>18888</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01449657991463087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005059253317905782</v>
+        <v>0.005671105900844089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03147766826648195</v>
+        <v>0.03083446936908485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -5721,19 +5721,19 @@
         <v>6652</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14454</v>
+        <v>13658</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01081335783016707</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00377092274140417</v>
+        <v>0.003767324330305958</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02349527451122091</v>
+        <v>0.0222017052835684</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -5742,19 +5742,19 @@
         <v>15532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8434</v>
+        <v>8143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26910</v>
+        <v>27976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01265100449597297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006869412889812864</v>
+        <v>0.006632743778724185</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02191876120043562</v>
+        <v>0.02278637211770669</v>
       </c>
     </row>
     <row r="23">
@@ -5771,19 +5771,19 @@
         <v>49608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36684</v>
+        <v>37079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>65158</v>
+        <v>64732</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08098730092574574</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05988727618447776</v>
+        <v>0.06053223722501141</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1063724440018963</v>
+        <v>0.1056763428292815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -5792,19 +5792,19 @@
         <v>38734</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27814</v>
+        <v>27744</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54030</v>
+        <v>52621</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06296248564036158</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04521282310405988</v>
+        <v>0.04509827948329093</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08782727282643749</v>
+        <v>0.08553629009774805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>80</v>
@@ -5813,19 +5813,19 @@
         <v>88342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>71968</v>
+        <v>69868</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>107942</v>
+        <v>108989</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07195549256510572</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05861830983933735</v>
+        <v>0.05690829476805628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08791966609166128</v>
+        <v>0.08877229807245716</v>
       </c>
     </row>
     <row r="24">
@@ -5842,19 +5842,19 @@
         <v>314157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>288206</v>
+        <v>285574</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>340810</v>
+        <v>340690</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5128703439509376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4705057986980907</v>
+        <v>0.4662084435885083</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5563823190043812</v>
+        <v>0.5561872462715304</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>281</v>
@@ -5863,19 +5863,19 @@
         <v>322639</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>294087</v>
+        <v>296024</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>347933</v>
+        <v>350347</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5244556990939453</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4780438887897763</v>
+        <v>0.4811915438878725</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5655709388820169</v>
+        <v>0.569494428920568</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>562</v>
@@ -5884,19 +5884,19 @@
         <v>636796</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>598589</v>
+        <v>594362</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>674604</v>
+        <v>672697</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.518675491231778</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4875551901463763</v>
+        <v>0.4841129596931477</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5494707126040604</v>
+        <v>0.5479174521797112</v>
       </c>
     </row>
     <row r="25">
@@ -5913,19 +5913,19 @@
         <v>213046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189373</v>
+        <v>190560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>237668</v>
+        <v>243530</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3478044100377762</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3091569652214969</v>
+        <v>0.3110944569339701</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3879997563854308</v>
+        <v>0.3975702882922712</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -5934,19 +5934,19 @@
         <v>234260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>208593</v>
+        <v>209796</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>259905</v>
+        <v>259832</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3807935459911532</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.339071256577282</v>
+        <v>0.3410270510316093</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4224798728508998</v>
+        <v>0.4223614495917825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>394</v>
@@ -5955,19 +5955,19 @@
         <v>447306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>409980</v>
+        <v>412867</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>483626</v>
+        <v>484791</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3643344853365562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3339323839459</v>
+        <v>0.3362834479503136</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3939175388879428</v>
+        <v>0.394865950376616</v>
       </c>
     </row>
     <row r="26">
@@ -5984,19 +5984,19 @@
         <v>26855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16815</v>
+        <v>18318</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38468</v>
+        <v>39565</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04384136517090964</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02745081501482879</v>
+        <v>0.02990420888229788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06279986476055954</v>
+        <v>0.06459144241713308</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -6005,19 +6005,19 @@
         <v>12904</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7132</v>
+        <v>6674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22379</v>
+        <v>22333</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02097491144437286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01159379585442974</v>
+        <v>0.01084880513061693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03637720576119002</v>
+        <v>0.03630212334444464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -6026,19 +6026,19 @@
         <v>39758</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28312</v>
+        <v>29258</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55631</v>
+        <v>56045</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03238352637058702</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02306050737563542</v>
+        <v>0.02383062073492573</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0453122843286535</v>
+        <v>0.04564950158739452</v>
       </c>
     </row>
     <row r="27">
@@ -6130,19 +6130,19 @@
         <v>7094</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3036</v>
+        <v>2989</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13671</v>
+        <v>13930</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01655969179689671</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007086446038310607</v>
+        <v>0.006977330421546174</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03191402827473789</v>
+        <v>0.03251708721089342</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11839</v>
+        <v>10854</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006634376653256807</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02643849812064528</v>
+        <v>0.02423867707150026</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -6172,19 +6172,19 @@
         <v>10065</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4274</v>
+        <v>4940</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18373</v>
+        <v>18826</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01148704652203597</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004877797111101821</v>
+        <v>0.005638493204017388</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02096958591648053</v>
+        <v>0.02148689718290817</v>
       </c>
     </row>
     <row r="29">
@@ -6201,19 +6201,19 @@
         <v>32143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21204</v>
+        <v>21691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44726</v>
+        <v>45375</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07503431603363274</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04949694234359871</v>
+        <v>0.05063512556001842</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1044064862559646</v>
+        <v>0.1059231192255278</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -6222,19 +6222,19 @@
         <v>27847</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19080</v>
+        <v>18468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41022</v>
+        <v>41574</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06218577246048311</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04260885441375508</v>
+        <v>0.04124191816383126</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09160737361345143</v>
+        <v>0.09284152083336943</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -6243,19 +6243,19 @@
         <v>59990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>45857</v>
+        <v>46082</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77787</v>
+        <v>78252</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06846766269296331</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05233717416699358</v>
+        <v>0.05259384030207484</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08877930488271828</v>
+        <v>0.08931011351315797</v>
       </c>
     </row>
     <row r="30">
@@ -6272,19 +6272,19 @@
         <v>223963</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>202575</v>
+        <v>204681</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>244710</v>
+        <v>247474</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5228129248790937</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4728844993651681</v>
+        <v>0.4778017048421128</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5712446472889625</v>
+        <v>0.5776955659064406</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -6293,19 +6293,19 @@
         <v>222477</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200237</v>
+        <v>200176</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>244529</v>
+        <v>242679</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4968224369518017</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4471568368892278</v>
+        <v>0.4470206088594841</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5460685421656871</v>
+        <v>0.541935307702333</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>403</v>
@@ -6314,19 +6314,19 @@
         <v>446440</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>419101</v>
+        <v>416790</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>481522</v>
+        <v>478468</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5095296664769475</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4783270479013407</v>
+        <v>0.4756893938767219</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5495694370489564</v>
+        <v>0.546083941741076</v>
       </c>
     </row>
     <row r="31">
@@ -6343,19 +6343,19 @@
         <v>155417</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>135550</v>
+        <v>132098</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>176236</v>
+        <v>176107</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.362799891373385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3164235153416611</v>
+        <v>0.3083656521321312</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4113991347679585</v>
+        <v>0.4110985828459598</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>166</v>
@@ -6364,19 +6364,19 @@
         <v>182047</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>162048</v>
+        <v>161157</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>203419</v>
+        <v>203323</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4065366234133368</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.361876576178489</v>
+        <v>0.3598869550159992</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.454262451423638</v>
+        <v>0.4540495766978985</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>312</v>
@@ -6385,19 +6385,19 @@
         <v>337464</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>305836</v>
+        <v>307637</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>364613</v>
+        <v>366203</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3851529274140068</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3490556896576829</v>
+        <v>0.3511113610896546</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4161393221866064</v>
+        <v>0.4179539490716138</v>
       </c>
     </row>
     <row r="32">
@@ -6414,19 +6414,19 @@
         <v>9764</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5202</v>
+        <v>4673</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18497</v>
+        <v>18552</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0227931759169918</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01214456234018106</v>
+        <v>0.01090750725965592</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0431793180382837</v>
+        <v>0.04330783794665892</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -6435,19 +6435,19 @@
         <v>12458</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6325</v>
+        <v>6467</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21431</v>
+        <v>22293</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02782079052112161</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01412412554495268</v>
+        <v>0.01444159307884118</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0478580234226848</v>
+        <v>0.04978385402502574</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -6456,19 +6456,19 @@
         <v>22222</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13159</v>
+        <v>14012</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32763</v>
+        <v>33258</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02536269689404635</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0150184631508776</v>
+        <v>0.01599183729887091</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03739324014722591</v>
+        <v>0.03795792099899645</v>
       </c>
     </row>
     <row r="33">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6607</v>
+        <v>6798</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005524219989731553</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01876804842991805</v>
+        <v>0.01931069195902957</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5971</v>
+        <v>6805</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002942745619702999</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009035539244050378</v>
+        <v>0.01029773379915822</v>
       </c>
     </row>
     <row r="35">
@@ -6623,19 +6623,19 @@
         <v>19902</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12008</v>
+        <v>11750</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32147</v>
+        <v>32150</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06444825842751688</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03888435864363628</v>
+        <v>0.03805132423486197</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1041030447912643</v>
+        <v>0.1041119443729433</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>21</v>
@@ -6644,19 +6644,19 @@
         <v>21793</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>14615</v>
+        <v>14079</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>33474</v>
+        <v>31800</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06190705044065458</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04151747396504821</v>
+        <v>0.03999554610032671</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09509103702991076</v>
+        <v>0.09033542654406472</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>38</v>
@@ -6665,19 +6665,19 @@
         <v>41694</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>29097</v>
+        <v>29897</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>57288</v>
+        <v>57290</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06309455986265276</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04403108762655335</v>
+        <v>0.04524239958390108</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08669156319681647</v>
+        <v>0.08669464101810248</v>
       </c>
     </row>
     <row r="36">
@@ -6694,19 +6694,19 @@
         <v>160336</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>140818</v>
+        <v>141463</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>179239</v>
+        <v>177459</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5192163292468259</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.456009540665696</v>
+        <v>0.4580999616834368</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5804296566378098</v>
+        <v>0.574666923159137</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>177</v>
@@ -6715,19 +6715,19 @@
         <v>181541</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>164824</v>
+        <v>163106</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200241</v>
+        <v>201008</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5157123738776406</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4682241432409663</v>
+        <v>0.4633439983328315</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5688350622402858</v>
+        <v>0.5710134816558151</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>326</v>
@@ -6736,19 +6736,19 @@
         <v>341877</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>313036</v>
+        <v>315549</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>369393</v>
+        <v>367651</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5173497762613417</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4737061656319572</v>
+        <v>0.4775077682669719</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5589887182429329</v>
+        <v>0.5563522556456781</v>
       </c>
     </row>
     <row r="37">
@@ -6765,19 +6765,19 @@
         <v>121555</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>104461</v>
+        <v>104117</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>142046</v>
+        <v>140911</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3936305991859024</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.338276814301765</v>
+        <v>0.3371632678885338</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4599878750230959</v>
+        <v>0.4563110709397253</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>123</v>
@@ -6786,19 +6786,19 @@
         <v>125376</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>107163</v>
+        <v>108091</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>142765</v>
+        <v>144424</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3561622962589647</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3044244506507155</v>
+        <v>0.3070603140958932</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4055600846928574</v>
+        <v>0.4102717976178088</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>231</v>
@@ -6807,19 +6807,19 @@
         <v>246931</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>220290</v>
+        <v>221680</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>274192</v>
+        <v>271742</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3736712774136156</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3333572446415879</v>
+        <v>0.3354594348958319</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.41492505427056</v>
+        <v>0.4112176060578418</v>
       </c>
     </row>
     <row r="38">
@@ -6836,19 +6836,19 @@
         <v>7011</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3006</v>
+        <v>2979</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14012</v>
+        <v>14096</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02270481313975478</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.009733393810142908</v>
+        <v>0.009645609842273964</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04537618945318213</v>
+        <v>0.04564681729546811</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>19</v>
@@ -6857,19 +6857,19 @@
         <v>21366</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>12753</v>
+        <v>13329</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>31880</v>
+        <v>33131</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06069405943300862</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03622943856232257</v>
+        <v>0.03786354262036546</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09056362387446366</v>
+        <v>0.09411716557086755</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>26</v>
@@ -6878,19 +6878,19 @@
         <v>28377</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18910</v>
+        <v>19404</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>41119</v>
+        <v>42889</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04294164084268694</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02861653730708295</v>
+        <v>0.02936365976832849</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0622238909187599</v>
+        <v>0.06490203147343042</v>
       </c>
     </row>
     <row r="39">
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6609</v>
+        <v>5587</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002872310000802528</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01712425270653924</v>
+        <v>0.01447547142408829</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5708</v>
+        <v>4889</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001746529122193044</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008992380629737973</v>
+        <v>0.00770250878320485</v>
       </c>
     </row>
     <row r="41">
@@ -7045,19 +7045,19 @@
         <v>22136</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14230</v>
+        <v>14184</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>32862</v>
+        <v>31886</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08897897355183011</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05719882936868249</v>
+        <v>0.05701230235599792</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1320913103655251</v>
+        <v>0.1281692360261419</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -7066,19 +7066,19 @@
         <v>29743</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>20762</v>
+        <v>19697</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>42739</v>
+        <v>41845</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07706199917084075</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05379242869251927</v>
+        <v>0.05103442918128639</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1107349431895555</v>
+        <v>0.1084193759573284</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>48</v>
@@ -7087,19 +7087,19 @@
         <v>51879</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>38173</v>
+        <v>39559</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>66828</v>
+        <v>68747</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08173277004350021</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06013873886209692</v>
+        <v>0.06232285943644034</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1052835443258901</v>
+        <v>0.1083068144949489</v>
       </c>
     </row>
     <row r="42">
@@ -7116,19 +7116,19 @@
         <v>134456</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>116255</v>
+        <v>117664</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>151610</v>
+        <v>150004</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5404551778161181</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4672950886722638</v>
+        <v>0.4729604993345167</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6094070326022827</v>
+        <v>0.6029549072281565</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>179</v>
@@ -7137,19 +7137,19 @@
         <v>198253</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>178130</v>
+        <v>177130</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>217427</v>
+        <v>217925</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5136625464269097</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4615250845416962</v>
+        <v>0.4589349275400755</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5633419326528682</v>
+        <v>0.5646332759452909</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>299</v>
@@ -7158,19 +7158,19 @@
         <v>332708</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>307232</v>
+        <v>303516</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>361586</v>
+        <v>360372</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5241637221694916</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4840280899200228</v>
+        <v>0.4781735725310213</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5696588078762517</v>
+        <v>0.5677464219952147</v>
       </c>
     </row>
     <row r="43">
@@ -7187,19 +7187,19 @@
         <v>87963</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>71706</v>
+        <v>73132</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>104789</v>
+        <v>105586</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3535761494077261</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2882274925452987</v>
+        <v>0.2939610138550663</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.421208737102529</v>
+        <v>0.4244121540410623</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>135</v>
@@ -7208,19 +7208,19 @@
         <v>149314</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>130009</v>
+        <v>128319</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>168560</v>
+        <v>169868</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3868637739338601</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3368476973756295</v>
+        <v>0.3324679697286427</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4367291854816196</v>
+        <v>0.4401197171927306</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>212</v>
@@ -7229,19 +7229,19 @@
         <v>237277</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>210145</v>
+        <v>212527</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>262730</v>
+        <v>264196</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3738169331766357</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3310718604195414</v>
+        <v>0.3348248627792455</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4139167429157287</v>
+        <v>0.4162262849083277</v>
       </c>
     </row>
     <row r="44">
@@ -7258,19 +7258,19 @@
         <v>4227</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12095</v>
+        <v>12670</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01698969922432569</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003710356922170225</v>
+        <v>0.003735798664376674</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0486185706937521</v>
+        <v>0.05092858099662612</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -7279,19 +7279,19 @@
         <v>7541</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2625</v>
+        <v>3015</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>16170</v>
+        <v>16483</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0195393704675869</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006800401286830725</v>
+        <v>0.007810647135090686</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04189524972632527</v>
+        <v>0.04270582408952517</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>9</v>
@@ -7300,19 +7300,19 @@
         <v>11768</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6209</v>
+        <v>5588</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>23402</v>
+        <v>23074</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0185400454881794</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009781666421797432</v>
+        <v>0.008803889782144357</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.036868025193684</v>
+        <v>0.03635241170760846</v>
       </c>
     </row>
     <row r="45">
@@ -7404,19 +7404,19 @@
         <v>49085</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>36842</v>
+        <v>35373</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>64844</v>
+        <v>67201</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01435384249903764</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01077366585964429</v>
+        <v>0.01034405389209278</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01896216345051411</v>
+        <v>0.01965139504176087</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>44</v>
@@ -7425,19 +7425,19 @@
         <v>46047</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>32400</v>
+        <v>34741</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>59687</v>
+        <v>62740</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01297311499606876</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.009128335098769428</v>
+        <v>0.009787890480735412</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01681610253701142</v>
+        <v>0.01767637575087857</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>88</v>
@@ -7446,19 +7446,19 @@
         <v>95132</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>77524</v>
+        <v>75388</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>116551</v>
+        <v>116554</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01365062810487831</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01112403607845946</v>
+        <v>0.01081762146168324</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01672406987517381</v>
+        <v>0.01672460933593853</v>
       </c>
     </row>
     <row r="47">
@@ -7475,19 +7475,19 @@
         <v>326841</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>289911</v>
+        <v>290775</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>359540</v>
+        <v>363090</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09557704525412968</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08477792157690169</v>
+        <v>0.08503031128061581</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1051392095651348</v>
+        <v>0.1061773852231035</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>243</v>
@@ -7496,19 +7496,19 @@
         <v>260167</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>231657</v>
+        <v>229238</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>294280</v>
+        <v>294543</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07329913951026096</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0652668163500683</v>
+        <v>0.06458534536151758</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.08291011477750307</v>
+        <v>0.08298419451569294</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>549</v>
@@ -7517,19 +7517,19 @@
         <v>587007</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>538851</v>
+        <v>540455</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>636536</v>
+        <v>635691</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.08423074849598766</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07732063155224403</v>
+        <v>0.07755078693491504</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09133763336457348</v>
+        <v>0.0912164954275327</v>
       </c>
     </row>
     <row r="48">
@@ -7546,19 +7546,19 @@
         <v>1780291</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1717957</v>
+        <v>1727231</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1839322</v>
+        <v>1843080</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.5206050133886745</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5023769289393248</v>
+        <v>0.5050889440039725</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5378672361005774</v>
+        <v>0.5389662769687268</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1721</v>
@@ -7567,19 +7567,19 @@
         <v>1851828</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1792450</v>
+        <v>1791535</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1912315</v>
+        <v>1911056</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5217325970274397</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5050035292872325</v>
+        <v>0.5047456100081269</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5387741844074574</v>
+        <v>0.5384193437392635</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3401</v>
@@ -7588,19 +7588,19 @@
         <v>3632119</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3549355</v>
+        <v>3544785</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3712199</v>
+        <v>3717480</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5211792998019553</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5093033111738903</v>
+        <v>0.5086476028412343</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.53267005585288</v>
+        <v>0.5334278746945962</v>
       </c>
     </row>
     <row r="49">
@@ -7617,19 +7617,19 @@
         <v>1169364</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1110988</v>
+        <v>1106786</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1230336</v>
+        <v>1223344</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3419534207075534</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3248826803383123</v>
+        <v>0.3236541335548588</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3597834540130954</v>
+        <v>0.3577387881056608</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1190</v>
@@ -7638,19 +7638,19 @@
         <v>1290376</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1234773</v>
+        <v>1235454</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1350655</v>
+        <v>1352737</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3635495352610192</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3478840467093093</v>
+        <v>0.3480756882173922</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3805324345336912</v>
+        <v>0.3811189188844435</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2275</v>
@@ -7659,19 +7659,19 @@
         <v>2459740</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2378464</v>
+        <v>2379275</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2543748</v>
+        <v>2547506</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3529524763352975</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3412900677774935</v>
+        <v>0.3414063826181869</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.365006999476959</v>
+        <v>0.3655462290262589</v>
       </c>
     </row>
     <row r="50">
@@ -7688,19 +7688,19 @@
         <v>94077</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>76278</v>
+        <v>73739</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>115735</v>
+        <v>115925</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02751067815060487</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02230587306060556</v>
+        <v>0.0215633738595142</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03384393091724246</v>
+        <v>0.0338994435752212</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>92</v>
@@ -7709,19 +7709,19 @@
         <v>100964</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>81419</v>
+        <v>82041</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>123677</v>
+        <v>124529</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02844561320521137</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0229389745645813</v>
+        <v>0.02311409850135005</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03484472991829077</v>
+        <v>0.0350847522989565</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>179</v>
@@ -7730,19 +7730,19 @@
         <v>195041</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>170330</v>
+        <v>166026</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>225464</v>
+        <v>223674</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02798684726188116</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02444091806212296</v>
+        <v>0.02382329810638692</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03235226144538581</v>
+        <v>0.03209543361014519</v>
       </c>
     </row>
     <row r="51">
@@ -8077,19 +8077,19 @@
         <v>12893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6478</v>
+        <v>6639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22382</v>
+        <v>21569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03081592097092438</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01548416655337661</v>
+        <v>0.01586940275391311</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05349746216061571</v>
+        <v>0.05155308347362866</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -8098,19 +8098,19 @@
         <v>9343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4735</v>
+        <v>4695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16632</v>
+        <v>16656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02367295489279192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01199622256001588</v>
+        <v>0.01189618105574868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04214114782829444</v>
+        <v>0.04220176247457445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -8119,19 +8119,19 @@
         <v>22236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13693</v>
+        <v>14366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32489</v>
+        <v>33043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02734857949096467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01684194301916059</v>
+        <v>0.01766895889264131</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03995986366776311</v>
+        <v>0.04064052303511963</v>
       </c>
     </row>
     <row r="5">
@@ -8148,19 +8148,19 @@
         <v>51765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39879</v>
+        <v>40054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68100</v>
+        <v>68246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1237292571203894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09531736602301046</v>
+        <v>0.09573667913192031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1627719449959034</v>
+        <v>0.163119906962545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -8169,19 +8169,19 @@
         <v>56233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43256</v>
+        <v>43814</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70089</v>
+        <v>71326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1424815708798525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1095993505742513</v>
+        <v>0.1110148946193756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1775892877005165</v>
+        <v>0.1807221773402705</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -8190,19 +8190,19 @@
         <v>107999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90312</v>
+        <v>89721</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127223</v>
+        <v>129533</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1328320128428981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1110785169912664</v>
+        <v>0.110352106077758</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1564773984996493</v>
+        <v>0.1593182483031477</v>
       </c>
     </row>
     <row r="6">
@@ -8219,19 +8219,19 @@
         <v>241295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>219365</v>
+        <v>220925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>262778</v>
+        <v>261161</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5767395070528549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5243242784590519</v>
+        <v>0.5280525526588296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6280896316989008</v>
+        <v>0.624223465573389</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -8240,19 +8240,19 @@
         <v>236472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>218550</v>
+        <v>218092</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>254181</v>
+        <v>254910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5991630065675242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5537540067389309</v>
+        <v>0.5525924244279661</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6440343607899315</v>
+        <v>0.6458811881088197</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>470</v>
@@ -8261,19 +8261,19 @@
         <v>477766</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>451725</v>
+        <v>449369</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>504972</v>
+        <v>505259</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5876243312480998</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5555948073649166</v>
+        <v>0.5526975621013105</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6210857745509513</v>
+        <v>0.6214382997266982</v>
       </c>
     </row>
     <row r="7">
@@ -8290,19 +8290,19 @@
         <v>107923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90647</v>
+        <v>90152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128626</v>
+        <v>126931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.257956952256628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2166625405952783</v>
+        <v>0.2154808514618617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3074392673577471</v>
+        <v>0.3033896030139037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -8311,19 +8311,19 @@
         <v>86897</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71599</v>
+        <v>71601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102399</v>
+        <v>102813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2201764227858423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1814156638256334</v>
+        <v>0.1814187536657577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.259454877890082</v>
+        <v>0.2605048393259733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -8332,19 +8332,19 @@
         <v>194820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171505</v>
+        <v>172209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>220366</v>
+        <v>221135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2396175123746531</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2109414736535147</v>
+        <v>0.2118069699806655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2710377528170341</v>
+        <v>0.2719825479755329</v>
       </c>
     </row>
     <row r="8">
@@ -8361,19 +8361,19 @@
         <v>4501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1064</v>
+        <v>1089</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11197</v>
+        <v>10960</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01075836259920331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002542550475118515</v>
+        <v>0.002603022653699351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0267620868498532</v>
+        <v>0.02619747885707924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -8382,19 +8382,19 @@
         <v>5725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1949</v>
+        <v>1967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11717</v>
+        <v>11654</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01450604487398915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004937119518466387</v>
+        <v>0.004983317519848412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02968928201558267</v>
+        <v>0.02952824093322118</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -8403,19 +8403,19 @@
         <v>10226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5786</v>
+        <v>5079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18461</v>
+        <v>18408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01257756404338434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007115996105044306</v>
+        <v>0.006247086161276247</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02270561013297969</v>
+        <v>0.02264034971006644</v>
       </c>
     </row>
     <row r="9">
@@ -8507,19 +8507,19 @@
         <v>14406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8172</v>
+        <v>7840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24236</v>
+        <v>24299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0244382722429937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01386372648331025</v>
+        <v>0.01330037696950863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04111500960538357</v>
+        <v>0.04122102433439542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -8528,19 +8528,19 @@
         <v>16872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10413</v>
+        <v>9397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27548</v>
+        <v>26860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03014204133314264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01860270505073692</v>
+        <v>0.01678783381320541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04921470769478346</v>
+        <v>0.04798535786404644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -8549,19 +8549,19 @@
         <v>31278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22441</v>
+        <v>20674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44000</v>
+        <v>44323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0272163953420711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01952686406411584</v>
+        <v>0.01798947338614312</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03828625606923149</v>
+        <v>0.03856770951597591</v>
       </c>
     </row>
     <row r="11">
@@ -8578,19 +8578,19 @@
         <v>60752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47446</v>
+        <v>46284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78018</v>
+        <v>77238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1030607219283368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08048799631759883</v>
+        <v>0.07851710859549463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1323507239155569</v>
+        <v>0.131027306476099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -8599,19 +8599,19 @@
         <v>60565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47664</v>
+        <v>48104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75088</v>
+        <v>75650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1081995902538719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08515066148668478</v>
+        <v>0.08593816066598385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1341445274887948</v>
+        <v>0.1351474374049546</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>119</v>
@@ -8620,19 +8620,19 @@
         <v>121318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>100289</v>
+        <v>103354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>141574</v>
+        <v>142964</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1055636999719156</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08726580520672089</v>
+        <v>0.0899324495755608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1231892756547459</v>
+        <v>0.1243990563954873</v>
       </c>
     </row>
     <row r="12">
@@ -8649,19 +8649,19 @@
         <v>340841</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>316801</v>
+        <v>317149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>365425</v>
+        <v>363163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5782069425097081</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5374238718069528</v>
+        <v>0.53801484530613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.619911572310052</v>
+        <v>0.6160737562906533</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>358</v>
@@ -8670,19 +8670,19 @@
         <v>343814</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320437</v>
+        <v>322166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>365184</v>
+        <v>365286</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6142209896983224</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5724577502654964</v>
+        <v>0.5755464170588952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6523993779426465</v>
+        <v>0.6525809228322349</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>687</v>
@@ -8691,19 +8691,19 @@
         <v>684655</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>652608</v>
+        <v>652720</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>716248</v>
+        <v>716558</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5957482305255138</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5678622624092</v>
+        <v>0.5679599878856967</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.623238464258363</v>
+        <v>0.6235077735246681</v>
       </c>
     </row>
     <row r="13">
@@ -8720,19 +8720,19 @@
         <v>165809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145080</v>
+        <v>144592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190110</v>
+        <v>190154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2812802873110954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2461148906134093</v>
+        <v>0.2452871732495409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3225045755065674</v>
+        <v>0.3225787144451609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -8741,19 +8741,19 @@
         <v>130736</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111981</v>
+        <v>111099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154233</v>
+        <v>150034</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2335594054070129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2000535879449239</v>
+        <v>0.1984778990834161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2755367763210383</v>
+        <v>0.2680350030292621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -8762,19 +8762,19 @@
         <v>296545</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271539</v>
+        <v>267970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>329047</v>
+        <v>325397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2580369753483009</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2362781185644095</v>
+        <v>0.2331724820101806</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2863181181587991</v>
+        <v>0.2831421300735493</v>
       </c>
     </row>
     <row r="14">
@@ -8791,19 +8791,19 @@
         <v>7671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2972</v>
+        <v>3067</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15639</v>
+        <v>15040</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01301377600786601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005040937087764637</v>
+        <v>0.005203327023979019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02652992985495687</v>
+        <v>0.02551321688496869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -8812,19 +8812,19 @@
         <v>7768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3848</v>
+        <v>3815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14791</v>
+        <v>14180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01387797330765013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006875104254421547</v>
+        <v>0.006815972514252864</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02642426458382038</v>
+        <v>0.02533172192290014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -8833,19 +8833,19 @@
         <v>15440</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9462</v>
+        <v>8921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24783</v>
+        <v>24564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01343469881219852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008232987808586006</v>
+        <v>0.007762239685506893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02156454718146697</v>
+        <v>0.02137450810109545</v>
       </c>
     </row>
     <row r="15">
@@ -8937,19 +8937,19 @@
         <v>8985</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4193</v>
+        <v>4677</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16407</v>
+        <v>16657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01350198078032116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006301061024224881</v>
+        <v>0.007027974953386433</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02465455563085086</v>
+        <v>0.02503059333172781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8958,19 +8958,19 @@
         <v>10199</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4811</v>
+        <v>5022</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17987</v>
+        <v>17809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01544631511825964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007285654398192976</v>
+        <v>0.0076054879281496</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02724096820189736</v>
+        <v>0.02697254075018551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8979,19 +8979,19 @@
         <v>19184</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12000</v>
+        <v>11637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29777</v>
+        <v>29783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01447033020901871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009051696063986394</v>
+        <v>0.008777773652782515</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02246048498763686</v>
+        <v>0.02246460192248392</v>
       </c>
     </row>
     <row r="17">
@@ -9008,19 +9008,19 @@
         <v>64996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50168</v>
+        <v>52150</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80014</v>
+        <v>82631</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09766756511230459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07538654499441197</v>
+        <v>0.07836391701396488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1202349869836825</v>
+        <v>0.1241665293809875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -9029,19 +9029,19 @@
         <v>55144</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41315</v>
+        <v>42082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70287</v>
+        <v>70438</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08351622138040539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06257201326863808</v>
+        <v>0.06373350406654354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1064506584842281</v>
+        <v>0.1066804512266461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -9050,19 +9050,19 @@
         <v>120140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99578</v>
+        <v>100278</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140603</v>
+        <v>144996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09061967969944058</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07511011401133831</v>
+        <v>0.07563827112888856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.106055089850941</v>
+        <v>0.1093683180978196</v>
       </c>
     </row>
     <row r="18">
@@ -9079,19 +9079,19 @@
         <v>432963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>408995</v>
+        <v>408537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>458883</v>
+        <v>458259</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6506006854919371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6145851187750053</v>
+        <v>0.6138960480851009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6895491885786412</v>
+        <v>0.6886123950324352</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>388</v>
@@ -9100,19 +9100,19 @@
         <v>383233</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>358829</v>
+        <v>355617</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>410846</v>
+        <v>407512</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5804148710239992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5434544503519214</v>
+        <v>0.5385886799338033</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6222348166134499</v>
+        <v>0.6171849138711143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>798</v>
@@ -9121,19 +9121,19 @@
         <v>816196</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>783231</v>
+        <v>782035</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>853174</v>
+        <v>851042</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.61564558954133</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5907801826542629</v>
+        <v>0.5898779658469961</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6435370541118983</v>
+        <v>0.6419294154330893</v>
       </c>
     </row>
     <row r="19">
@@ -9150,19 +9150,19 @@
         <v>151582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129226</v>
+        <v>131049</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>173908</v>
+        <v>174588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2277776847051489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1941842619389434</v>
+        <v>0.1969236547083277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2613267114145957</v>
+        <v>0.2623476757280916</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -9171,19 +9171,19 @@
         <v>201668</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>180861</v>
+        <v>177655</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>226689</v>
+        <v>225040</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3054304779412174</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2739170535806832</v>
+        <v>0.269061627905831</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3433253691098994</v>
+        <v>0.3408275687424262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>348</v>
@@ -9192,19 +9192,19 @@
         <v>353250</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>319244</v>
+        <v>320890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>382833</v>
+        <v>384690</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2664516084741663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2408011172089795</v>
+        <v>0.2420431702102649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2887654879668851</v>
+        <v>0.2901663149948436</v>
       </c>
     </row>
     <row r="20">
@@ -9221,19 +9221,19 @@
         <v>6956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2270</v>
+        <v>2883</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15090</v>
+        <v>14748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01045208391028823</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003410315776110629</v>
+        <v>0.004331651165955679</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02267564568527341</v>
+        <v>0.02216087757909722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -9242,19 +9242,19 @@
         <v>10031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5388</v>
+        <v>4786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19097</v>
+        <v>18380</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01519211453611839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008160502042369322</v>
+        <v>0.007248977421461232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02892279840440563</v>
+        <v>0.02783669264638483</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -9263,19 +9263,19 @@
         <v>16987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10261</v>
+        <v>10060</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27018</v>
+        <v>27145</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01281279207604442</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007740079695417595</v>
+        <v>0.007588232209632674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02037903335493973</v>
+        <v>0.02047503051999073</v>
       </c>
     </row>
     <row r="21">
@@ -9367,19 +9367,19 @@
         <v>6957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2962</v>
+        <v>2774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16131</v>
+        <v>15114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01078706879240459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004592070736353217</v>
+        <v>0.00430162489933452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02501015571495415</v>
+        <v>0.02343348279147215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -9388,19 +9388,19 @@
         <v>8893</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4117</v>
+        <v>4197</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16694</v>
+        <v>16654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01372527387393991</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006353068223435706</v>
+        <v>0.006477239783608824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02576302270059021</v>
+        <v>0.02570235230084834</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -9409,19 +9409,19 @@
         <v>15851</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8710</v>
+        <v>9305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26014</v>
+        <v>26522</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01225958519543765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006736679938384844</v>
+        <v>0.007196689821797616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02012026515831515</v>
+        <v>0.02051305947311244</v>
       </c>
     </row>
     <row r="23">
@@ -9438,19 +9438,19 @@
         <v>64926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49322</v>
+        <v>50184</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81489</v>
+        <v>84325</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1006659995357859</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07647304888239907</v>
+        <v>0.07781018390641253</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1263467667501855</v>
+        <v>0.1307448755140947</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -9459,19 +9459,19 @@
         <v>49331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36386</v>
+        <v>36074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65675</v>
+        <v>63808</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07613195797344727</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05615365209145685</v>
+        <v>0.05567199320384554</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1013556876606125</v>
+        <v>0.09847479535580364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>99</v>
@@ -9480,19 +9480,19 @@
         <v>114256</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>93436</v>
+        <v>94556</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>136855</v>
+        <v>138315</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08837047297085297</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07226682496469231</v>
+        <v>0.0731331410582468</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1058487742722073</v>
+        <v>0.1069783476589297</v>
       </c>
     </row>
     <row r="24">
@@ -9509,19 +9509,19 @@
         <v>388532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>363810</v>
+        <v>362427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>417209</v>
+        <v>415448</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6024122487099668</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5640813272661821</v>
+        <v>0.5619372078216655</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6468760622004027</v>
+        <v>0.6441451855043245</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>353</v>
@@ -9530,19 +9530,19 @@
         <v>374993</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>350302</v>
+        <v>350257</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>401076</v>
+        <v>401213</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5787247904601435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5406188101031186</v>
+        <v>0.5405493996247284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6189772021034256</v>
+        <v>0.6191889231401758</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>711</v>
@@ -9551,19 +9551,19 @@
         <v>763525</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>725083</v>
+        <v>725486</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>796374</v>
+        <v>796736</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5905409974354304</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5608081868008675</v>
+        <v>0.5611198396887883</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6159476654575564</v>
+        <v>0.616227504017025</v>
       </c>
     </row>
     <row r="25">
@@ -9580,19 +9580,19 @@
         <v>175316</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150396</v>
+        <v>153611</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>200049</v>
+        <v>200575</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2718252663291112</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2331867571720163</v>
+        <v>0.2381717315549848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3101726879826225</v>
+        <v>0.310988501923691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -9601,19 +9601,19 @@
         <v>198571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>174115</v>
+        <v>175740</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223784</v>
+        <v>222517</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3064536456150133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2687108796726505</v>
+        <v>0.271217583150788</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3453637580033519</v>
+        <v>0.3434090037650485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>336</v>
@@ -9622,19 +9622,19 @@
         <v>373888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>342001</v>
+        <v>342382</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>407963</v>
+        <v>409605</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2891796902355244</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2645170457449032</v>
+        <v>0.2648121480057458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.315534884636952</v>
+        <v>0.3168045766462989</v>
       </c>
     </row>
     <row r="26">
@@ -9651,19 +9651,19 @@
         <v>9229</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3855</v>
+        <v>3888</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18456</v>
+        <v>19185</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01430941663273148</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005976676159884715</v>
+        <v>0.006028700132685723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02861559645259064</v>
+        <v>0.02974608641322187</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -9672,19 +9672,19 @@
         <v>16176</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9305</v>
+        <v>8983</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26562</v>
+        <v>26571</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.024964332077456</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01436054935580068</v>
+        <v>0.01386339326045711</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04099254536718146</v>
+        <v>0.04100735928874291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -9693,19 +9693,19 @@
         <v>25405</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16190</v>
+        <v>16047</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37432</v>
+        <v>38410</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01964925416275466</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01252199192588335</v>
+        <v>0.01241119438231866</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02895126636354992</v>
+        <v>0.02970779615526122</v>
       </c>
     </row>
     <row r="27">
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6520</v>
+        <v>6715</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002459456094587544</v>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0136427347600801</v>
+        <v>0.01405141497054195</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -9818,19 +9818,19 @@
         <v>6658</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3216</v>
+        <v>2298</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13904</v>
+        <v>13369</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01340119205787675</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006471923957198998</v>
+        <v>0.004625529020953302</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02798368066850241</v>
+        <v>0.02690780084747644</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -9839,19 +9839,19 @@
         <v>7834</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16733</v>
+        <v>15628</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008036574100826328</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003389567290658778</v>
+        <v>0.003392627458649612</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01716628899752684</v>
+        <v>0.01603234749290051</v>
       </c>
     </row>
     <row r="29">
@@ -9868,19 +9868,19 @@
         <v>42010</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29789</v>
+        <v>28895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55726</v>
+        <v>56171</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08790203704222106</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06233162950499182</v>
+        <v>0.06046109037976827</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1166017853702336</v>
+        <v>0.1175327324324896</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -9889,19 +9889,19 @@
         <v>43533</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30369</v>
+        <v>32166</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58463</v>
+        <v>59122</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08761732606600389</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06112327899585328</v>
+        <v>0.06474010388960624</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1176676248551633</v>
+        <v>0.1189933895673759</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -9910,19 +9910,19 @@
         <v>85543</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>68832</v>
+        <v>67831</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>107370</v>
+        <v>105591</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08775691686043618</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07061366936199932</v>
+        <v>0.06958655022794498</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1101493925354734</v>
+        <v>0.1083248577149363</v>
       </c>
     </row>
     <row r="30">
@@ -9939,19 +9939,19 @@
         <v>288646</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>266582</v>
+        <v>265510</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>310367</v>
+        <v>312316</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6039662742349408</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5577982399084536</v>
+        <v>0.555555078486319</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6494139684860493</v>
+        <v>0.6534929683005873</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>264</v>
@@ -9960,19 +9960,19 @@
         <v>303520</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>280994</v>
+        <v>282825</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>326719</v>
+        <v>329011</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6108897609016442</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5655527081440458</v>
+        <v>0.5692365344537138</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.657581179231379</v>
+        <v>0.6621950718616818</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>525</v>
@@ -9981,19 +9981,19 @@
         <v>592166</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>558259</v>
+        <v>560702</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>625021</v>
+        <v>624857</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6074952482738297</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5727100345097914</v>
+        <v>0.5752162892125311</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6411999612301691</v>
+        <v>0.6410318335446192</v>
       </c>
     </row>
     <row r="31">
@@ -10010,19 +10010,19 @@
         <v>139557</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>116346</v>
+        <v>119025</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>161903</v>
+        <v>160139</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2920095328296899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2434425832296699</v>
+        <v>0.2490498940452384</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3387682437576385</v>
+        <v>0.3350754878717803</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>117</v>
@@ -10031,19 +10031,19 @@
         <v>133198</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>113708</v>
+        <v>111274</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>153808</v>
+        <v>152566</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2680860874372757</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2288578649262594</v>
+        <v>0.2239594852338847</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3095677788277869</v>
+        <v>0.307066803800172</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>237</v>
@@ -10052,19 +10052,19 @@
         <v>272755</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>245379</v>
+        <v>243512</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>304372</v>
+        <v>300738</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2798155008664844</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2517310608855592</v>
+        <v>0.2498153274695485</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.312250950323042</v>
+        <v>0.3085233547417359</v>
       </c>
     </row>
     <row r="32">
@@ -10081,19 +10081,19 @@
         <v>6530</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3187</v>
+        <v>2304</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13540</v>
+        <v>13124</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01366269979856078</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006669074924381953</v>
+        <v>0.004819866727791103</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02833020855307724</v>
+        <v>0.02745995057807828</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -10102,19 +10102,19 @@
         <v>9940</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5191</v>
+        <v>4579</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18496</v>
+        <v>18114</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02000563353719946</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01044875610663176</v>
+        <v>0.009216408644561488</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03722711078252607</v>
+        <v>0.03645865615993779</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -10123,19 +10123,19 @@
         <v>16469</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9728</v>
+        <v>9599</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26242</v>
+        <v>26099</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01689575989842331</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009979479885723057</v>
+        <v>0.009847633176137675</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02692163048099142</v>
+        <v>0.0267746635791807</v>
       </c>
     </row>
     <row r="33">
@@ -10227,19 +10227,19 @@
         <v>2839</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7471</v>
+        <v>6714</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008538412791557808</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0</v>
+        <v>0.002799479800194219</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02247400624150669</v>
+        <v>0.02019599338254521</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -10261,19 +10261,19 @@
         <v>2839</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7518</v>
+        <v>7571</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003996823362785668</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001312568636243874</v>
+        <v>0.001314681209392677</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01058529081897976</v>
+        <v>0.01066049014049368</v>
       </c>
     </row>
     <row r="35">
@@ -10290,19 +10290,19 @@
         <v>26223</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17361</v>
+        <v>17571</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37846</v>
+        <v>37734</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07887808135885202</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05222192146966441</v>
+        <v>0.05285417602190769</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1138387713633015</v>
+        <v>0.1135024843385132</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>25</v>
@@ -10311,19 +10311,19 @@
         <v>25387</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>17223</v>
+        <v>17109</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>36348</v>
+        <v>36798</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06720249148814156</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04559287160807891</v>
+        <v>0.04528950767685829</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09622002896613566</v>
+        <v>0.09740930449040698</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>50</v>
@@ -10332,19 +10332,19 @@
         <v>51609</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38805</v>
+        <v>39449</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>66986</v>
+        <v>69600</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07266782462543127</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05463903332749354</v>
+        <v>0.05554501384140211</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09431898605577779</v>
+        <v>0.09799933070149114</v>
       </c>
     </row>
     <row r="36">
@@ -10361,19 +10361,19 @@
         <v>186813</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>168341</v>
+        <v>170352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>204430</v>
+        <v>205021</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5619306547297511</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5063652165610177</v>
+        <v>0.5124152815826164</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6149203738638064</v>
+        <v>0.6166991480932983</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>212</v>
@@ -10382,19 +10382,19 @@
         <v>223182</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>203722</v>
+        <v>202811</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>243512</v>
+        <v>241449</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5908002682463445</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5392867133146949</v>
+        <v>0.5368739158789215</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6446178001220156</v>
+        <v>0.6391567299587582</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>393</v>
@@ -10403,19 +10403,19 @@
         <v>409995</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>383284</v>
+        <v>383574</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>438609</v>
+        <v>435744</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5772864280755109</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5396761828683047</v>
+        <v>0.5400850885458032</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6175758952157198</v>
+        <v>0.613542151318797</v>
       </c>
     </row>
     <row r="37">
@@ -10432,19 +10432,19 @@
         <v>112938</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>95865</v>
+        <v>95826</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>130663</v>
+        <v>128859</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3397148478176209</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2883593127322515</v>
+        <v>0.2882437316710787</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3930304788302175</v>
+        <v>0.3876066037617731</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>111</v>
@@ -10453,19 +10453,19 @@
         <v>122458</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>101739</v>
+        <v>105129</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>141323</v>
+        <v>142603</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3241669873875372</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2693191741930659</v>
+        <v>0.2782936091897785</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.374105163440425</v>
+        <v>0.3774932225011344</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>222</v>
@@ -10474,19 +10474,19 @@
         <v>235396</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>209135</v>
+        <v>210275</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>261215</v>
+        <v>262606</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.331444926897528</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.294468674080037</v>
+        <v>0.2960735040745893</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3677985546608826</v>
+        <v>0.3697582663048702</v>
       </c>
     </row>
     <row r="38">
@@ -10503,19 +10503,19 @@
         <v>3636</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10518</v>
+        <v>10746</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01093800330221815</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002836572831695712</v>
+        <v>0.00286417932538288</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0316385550589032</v>
+        <v>0.03232369332651867</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>6</v>
@@ -10524,19 +10524,19 @@
         <v>6736</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2067</v>
+        <v>2641</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13927</v>
+        <v>15020</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01783025287797683</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.005471807099766448</v>
+        <v>0.006991084104733474</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0368667336580594</v>
+        <v>0.03976141652733743</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -10545,19 +10545,19 @@
         <v>10372</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4947</v>
+        <v>4762</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19382</v>
+        <v>19028</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01460399703874421</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006965489366039099</v>
+        <v>0.006705107120338557</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02729019716041381</v>
+        <v>0.02679221272729824</v>
       </c>
     </row>
     <row r="39">
@@ -10649,19 +10649,19 @@
         <v>6502</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2461</v>
+        <v>2633</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12467</v>
+        <v>13541</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0252985151348891</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00957663689140485</v>
+        <v>0.01024697504663791</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04851057016084727</v>
+        <v>0.05268900054735701</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7554</v>
+        <v>8620</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.006172900660543886</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01887684377623525</v>
+        <v>0.02154176008644248</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -10691,19 +10691,19 @@
         <v>8972</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4487</v>
+        <v>4045</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17001</v>
+        <v>16938</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01365234604556704</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006827942034558947</v>
+        <v>0.006155225971785972</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02587033273501575</v>
+        <v>0.02577373161616034</v>
       </c>
     </row>
     <row r="41">
@@ -10720,19 +10720,19 @@
         <v>17609</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10997</v>
+        <v>10883</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25333</v>
+        <v>25461</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06851859121812073</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04279060754200843</v>
+        <v>0.04234541178019408</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.09857241680344384</v>
+        <v>0.09907157882748405</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -10741,19 +10741,19 @@
         <v>15167</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7991</v>
+        <v>8755</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>25781</v>
+        <v>26235</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03790100850935735</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01997026864062429</v>
+        <v>0.02187922490814044</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06442627021445953</v>
+        <v>0.06555934602124094</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>33</v>
@@ -10762,19 +10762,19 @@
         <v>32776</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22648</v>
+        <v>22950</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>44664</v>
+        <v>45351</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04987461270381631</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03446300210264511</v>
+        <v>0.0349231941575119</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0679638442073522</v>
+        <v>0.06901025103333905</v>
       </c>
     </row>
     <row r="42">
@@ -10791,19 +10791,19 @@
         <v>175762</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>161701</v>
+        <v>160839</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>189159</v>
+        <v>188866</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6839039007939759</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6291902611329756</v>
+        <v>0.6258373702355902</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7360346755313728</v>
+        <v>0.734890963817505</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>193</v>
@@ -10812,19 +10812,19 @@
         <v>256471</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>236564</v>
+        <v>233849</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>279562</v>
+        <v>277420</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6409060291020714</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5911606933589679</v>
+        <v>0.5843745754795024</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6986107522040097</v>
+        <v>0.6932578314749643</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>400</v>
@@ -10833,19 +10833,19 @@
         <v>432233</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>404941</v>
+        <v>405816</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>458036</v>
+        <v>458424</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6577211872985947</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6161916865927285</v>
+        <v>0.6175226958309933</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.696986389788811</v>
+        <v>0.6975764654196375</v>
       </c>
     </row>
     <row r="43">
@@ -10862,19 +10862,19 @@
         <v>55517</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>44248</v>
+        <v>44895</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68972</v>
+        <v>68747</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2160205408238185</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1721737185667714</v>
+        <v>0.1746908272564046</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2683764471748466</v>
+        <v>0.2675005479597212</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>89</v>
@@ -10883,19 +10883,19 @@
         <v>119556</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>98750</v>
+        <v>100542</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>141288</v>
+        <v>140721</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2987643428388081</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2467705440677503</v>
+        <v>0.2512498395526617</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3530704252985432</v>
+        <v>0.3516532200753565</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>154</v>
@@ -10904,19 +10904,19 @@
         <v>175073</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>151930</v>
+        <v>152344</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>202570</v>
+        <v>199774</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2664057616831315</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2311899220968146</v>
+        <v>0.2318191334235659</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3082468173361352</v>
+        <v>0.3039929049371799</v>
       </c>
     </row>
     <row r="44">
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5107</v>
+        <v>5613</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.006258452029195768</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01987240136854286</v>
+        <v>0.02184074334530149</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -10954,19 +10954,19 @@
         <v>6505</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2369</v>
+        <v>2527</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>13601</v>
+        <v>15425</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01625571888921929</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005921240343741866</v>
+        <v>0.006314821127548876</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03398779284126303</v>
+        <v>0.03854544346796154</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -10975,19 +10975,19 @@
         <v>8113</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3562</v>
+        <v>3268</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>15857</v>
+        <v>16164</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01234609226889039</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.005419507420902824</v>
+        <v>0.004972784277973511</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02412882560799369</v>
+        <v>0.02459620978631873</v>
       </c>
     </row>
     <row r="45">
@@ -11079,19 +11079,19 @@
         <v>53757</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>39536</v>
+        <v>41182</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>69868</v>
+        <v>70900</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01587776393432325</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0116773628710128</v>
+        <v>0.01216368711083882</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0206364078616896</v>
+        <v>0.02094133791487726</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>52</v>
@@ -11100,19 +11100,19 @@
         <v>54436</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>40344</v>
+        <v>41010</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>70324</v>
+        <v>70782</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01538852475939301</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01140494443841339</v>
+        <v>0.01159297409766708</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01987982468652803</v>
+        <v>0.02000925433739781</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>103</v>
@@ -11121,19 +11121,19 @@
         <v>108193</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>87535</v>
+        <v>88607</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>130358</v>
+        <v>130935</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01562778134650779</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01264384220612657</v>
+        <v>0.01279865467733827</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01882941795038299</v>
+        <v>0.01891279565213444</v>
       </c>
     </row>
     <row r="47">
@@ -11150,19 +11150,19 @@
         <v>328281</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>293780</v>
+        <v>291618</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>365211</v>
+        <v>365341</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09696216560731205</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08677160892722954</v>
+        <v>0.08613319671736824</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1078697058688885</v>
+        <v>0.1079082363370908</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>291</v>
@@ -11171,19 +11171,19 @@
         <v>305359</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>273074</v>
+        <v>273172</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>339590</v>
+        <v>337128</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08632188437750651</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07719523513268464</v>
+        <v>0.07722308046876444</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0959985558145007</v>
+        <v>0.09530256317066989</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>597</v>
@@ -11192,19 +11192,19 @@
         <v>633640</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>587087</v>
+        <v>584541</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>686553</v>
+        <v>684832</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09152538708831806</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08480099613411603</v>
+        <v>0.08443333460136911</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09916827609493507</v>
+        <v>0.09891970593803884</v>
       </c>
     </row>
     <row r="48">
@@ -11221,19 +11221,19 @@
         <v>2054853</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1997061</v>
+        <v>1998474</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2110280</v>
+        <v>2113901</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.6069274331822382</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5898577420320962</v>
+        <v>0.5902751966539808</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6232985276906011</v>
+        <v>0.6243678875495183</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2011</v>
@@ -11242,19 +11242,19 @@
         <v>2121685</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2060557</v>
+        <v>2058860</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2180966</v>
+        <v>2174854</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5997787560273122</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5824985293582228</v>
+        <v>0.5820186910486405</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.616536897645181</v>
+        <v>0.6148090046046939</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3984</v>
@@ -11263,19 +11263,19 @@
         <v>4176538</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4093651</v>
+        <v>4097509</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>4255477</v>
+        <v>4257705</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6032747313827544</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.5913022467701211</v>
+        <v>0.5918595512096855</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6146769787261509</v>
+        <v>0.6149988635639756</v>
       </c>
     </row>
     <row r="49">
@@ -11292,19 +11292,19 @@
         <v>908642</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>859167</v>
+        <v>857197</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>968673</v>
+        <v>959669</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2683792827093047</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2537660878032029</v>
+        <v>0.2531843543019898</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2861099964316177</v>
+        <v>0.283450536397086</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>918</v>
@@ -11313,19 +11313,19 @@
         <v>993085</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>934239</v>
+        <v>940299</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1042764</v>
+        <v>1052716</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2807350803666844</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2640999199274358</v>
+        <v>0.2658130489526658</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2947786788419052</v>
+        <v>0.297592193030402</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1776</v>
@@ -11334,19 +11334,19 @@
         <v>1901728</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1826842</v>
+        <v>1826627</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1976792</v>
+        <v>1977237</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2746926247947099</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2638758171318439</v>
+        <v>0.2638447718826035</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2855351615855779</v>
+        <v>0.2855995498402844</v>
       </c>
     </row>
     <row r="50">
@@ -11363,19 +11363,19 @@
         <v>40131</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>28133</v>
+        <v>27934</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>55111</v>
+        <v>55858</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01185335456682174</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.008309549539482632</v>
+        <v>0.008250756796826218</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01627763852009196</v>
+        <v>0.01649828347716716</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>59</v>
@@ -11384,19 +11384,19 @@
         <v>62881</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>46714</v>
+        <v>47563</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>77914</v>
+        <v>80057</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01777575446910377</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01320550123586512</v>
+        <v>0.01344550965712967</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02202540541906209</v>
+        <v>0.02263134424832777</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>94</v>
@@ -11405,19 +11405,19 @@
         <v>103012</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>81877</v>
+        <v>85268</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>124029</v>
+        <v>127268</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01487947538770981</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01182668969091667</v>
+        <v>0.01231637814306213</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01791521142235279</v>
+        <v>0.0183830611634386</v>
       </c>
     </row>
     <row r="51">
